--- a/pred_ohlcv/54_21/2020-01-14 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 WTC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-40758.7099</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-39382.5706</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-41210.8287</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-41208.3287</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-40112.6291</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>10500.97220000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14010.84690000001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13957.80390000001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1451.479499999994</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1971.029499999994</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-5599.268399999994</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-6199.268399999994</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-5965.586399999995</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5734.669299999995</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5734.669299999995</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5731.546799999995</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4566.546799999995</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4496.546799999995</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4496.546799999995</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2757.294399999994</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3757.294399999994</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2785.710300000005</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2626.602900000005</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-17373.39709999999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-15854.54169999999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-17442.94959999999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-18698.47089999999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 WTC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-32620.0152</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-38144.7099</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-40758.7099</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-39382.5706</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-41210.8287</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-41208.3287</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-40112.6291</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10366.32910000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8829.884900000006</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8829.884900000006</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14012.68610000001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14010.84690000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13957.80390000001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2790.766900000006</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1971.029499999994</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5597.429199999994</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-5599.268399999994</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-6199.268399999994</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-5249.868399999995</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2785.710300000005</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2626.602900000005</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-17373.39709999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-15854.54169999999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
